--- a/data/trans_orig/P6605-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD36B580-981D-4339-91F7-E437311BE6D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{446A706F-5524-4A2D-858B-32D8E9230BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92F2F67F-978B-4B11-9E9F-B27D317AB49F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA1FBDD-2A8A-4BEF-AB26-060462E35267}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="548">
   <si>
     <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>25,48%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
   </si>
   <si>
     <t>27,29%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,1540 +107,1582 @@
     <t>14,85%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
   </si>
   <si>
     <t>17,33%</t>
   </si>
   <si>
-    <t>11,84%</t>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>33,69%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>26,67%</t>
   </si>
   <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>51,16%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>32,32%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>47,98%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
   </si>
   <si>
     <t>16,92%</t>
   </si>
   <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
     <t>17,86%</t>
   </si>
   <si>
-    <t>15,13%</t>
+    <t>15,02%</t>
   </si>
   <si>
     <t>15,64%</t>
   </si>
   <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE939358-C30F-4F09-9220-B09531EE6D70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22914E31-6606-409F-B1C0-81714AADB5B2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2777,7 +2819,7 @@
         <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2792,13 +2834,13 @@
         <v>75442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -2807,13 +2849,13 @@
         <v>73734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -2822,13 +2864,13 @@
         <v>149176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2885,13 @@
         <v>47851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2858,13 +2900,13 @@
         <v>20367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -2873,13 +2915,13 @@
         <v>68219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2947,13 +2989,13 @@
         <v>520264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>124</v>
+        <v>58</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H19" s="7">
         <v>307</v>
@@ -2962,13 +3004,13 @@
         <v>316644</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M19" s="7">
         <v>806</v>
@@ -2977,13 +3019,13 @@
         <v>836908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2998,13 +3040,13 @@
         <v>437149</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -3013,13 +3055,13 @@
         <v>245945</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>650</v>
@@ -3028,13 +3070,13 @@
         <v>683094</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3049,10 +3091,10 @@
         <v>502159</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>142</v>
@@ -3064,13 +3106,13 @@
         <v>272875</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M21" s="7">
         <v>743</v>
@@ -3079,10 +3121,10 @@
         <v>775034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>147</v>
@@ -3121,7 +3163,7 @@
         <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>601</v>
@@ -3130,13 +3172,13 @@
         <v>630184</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3192,7 +3234,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +3253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F4F344-CBCE-4460-918B-DC249ED36EF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3F49F8-E6C3-43D9-96B2-E9148C78A964}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3228,7 +3270,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3335,13 +3377,13 @@
         <v>25878</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3350,13 +3392,13 @@
         <v>32090</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -3419,10 +3461,10 @@
         <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3479,13 @@
         <v>69870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3452,13 +3494,13 @@
         <v>22968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>90</v>
@@ -3467,13 +3509,13 @@
         <v>92838</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,13 +3530,13 @@
         <v>48113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -3503,13 +3545,13 @@
         <v>41441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -3518,13 +3560,13 @@
         <v>89553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3566,7 +3608,7 @@
         <v>304</v>
       </c>
       <c r="N8" s="7">
-        <v>321886</v>
+        <v>321885</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -3592,13 +3634,13 @@
         <v>187698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H9" s="7">
         <v>125</v>
@@ -3607,13 +3649,13 @@
         <v>135100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="M9" s="7">
         <v>297</v>
@@ -3622,13 +3664,13 @@
         <v>322798</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3685,13 @@
         <v>239349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3658,13 +3700,13 @@
         <v>137034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M10" s="7">
         <v>360</v>
@@ -3673,13 +3715,13 @@
         <v>376382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3694,13 +3736,13 @@
         <v>267527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -3709,13 +3751,13 @@
         <v>157384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -3724,13 +3766,13 @@
         <v>424911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3787,13 @@
         <v>217259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>38</v>
+        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>134</v>
@@ -3760,13 +3802,13 @@
         <v>142347</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>338</v>
@@ -3775,13 +3817,13 @@
         <v>359606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3891,13 @@
         <v>111304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -3864,13 +3906,13 @@
         <v>82352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -3879,13 +3921,13 @@
         <v>193656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3942,13 @@
         <v>71000</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -3915,13 +3957,13 @@
         <v>72657</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M15" s="7">
         <v>129</v>
@@ -3930,13 +3972,13 @@
         <v>143657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3993,13 @@
         <v>85121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>57</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -3966,13 +4008,13 @@
         <v>53366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -3981,13 +4023,13 @@
         <v>138488</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4044,13 @@
         <v>48832</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4017,13 +4059,13 @@
         <v>26522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>168</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4032,13 +4074,13 @@
         <v>75354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>179</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4148,13 @@
         <v>324881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
@@ -4121,13 +4163,13 @@
         <v>249542</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>524</v>
@@ -4136,13 +4178,13 @@
         <v>574422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>200</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4199,13 @@
         <v>348396</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -4172,13 +4214,13 @@
         <v>253169</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>264</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>567</v>
@@ -4187,13 +4229,13 @@
         <v>601565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4250,13 @@
         <v>422519</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H21" s="7">
         <v>213</v>
@@ -4223,13 +4265,13 @@
         <v>233719</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M21" s="7">
         <v>614</v>
@@ -4238,13 +4280,13 @@
         <v>656237</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>78</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4301,13 @@
         <v>314204</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -4274,13 +4316,13 @@
         <v>210310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M22" s="7">
         <v>492</v>
@@ -4289,13 +4331,13 @@
         <v>524513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>281</v>
+        <v>194</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,7 +4393,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4370,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B12C6B4-5696-4B44-BE89-033029E6C99B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7D0CF0-3FC8-4001-9CDE-672B6709C2D2}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4387,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4494,13 +4536,13 @@
         <v>19644</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4509,13 +4551,13 @@
         <v>15999</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4524,13 +4566,13 @@
         <v>35642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4548,10 +4590,10 @@
         <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4560,13 +4602,13 @@
         <v>19098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4575,13 +4617,13 @@
         <v>52605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>298</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4638,13 @@
         <v>43766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -4611,13 +4653,13 @@
         <v>17718</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>84</v>
+        <v>311</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -4626,13 +4668,13 @@
         <v>61484</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4689,13 @@
         <v>41943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4662,13 +4704,13 @@
         <v>19272</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4677,13 +4719,13 @@
         <v>61215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4793,13 @@
         <v>231592</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>69</v>
+        <v>251</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="H9" s="7">
         <v>188</v>
@@ -4766,13 +4808,13 @@
         <v>192396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="M9" s="7">
         <v>405</v>
@@ -4781,13 +4823,13 @@
         <v>423988</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>235</v>
+        <v>332</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4844,13 @@
         <v>226396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4817,13 +4859,13 @@
         <v>174697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>386</v>
@@ -4832,13 +4874,13 @@
         <v>401093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>329</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4853,13 +4895,13 @@
         <v>276996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>330</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -4868,13 +4910,13 @@
         <v>148247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>409</v>
@@ -4883,13 +4925,13 @@
         <v>425243</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4946,13 @@
         <v>186515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H12" s="7">
         <v>128</v>
@@ -4919,13 +4961,13 @@
         <v>135458</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>341</v>
+        <v>174</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="M12" s="7">
         <v>298</v>
@@ -4934,13 +4976,13 @@
         <v>321973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>344</v>
+        <v>151</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>260</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5050,13 @@
         <v>160014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -5023,13 +5065,13 @@
         <v>128704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="M14" s="7">
         <v>272</v>
@@ -5038,13 +5080,13 @@
         <v>288719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5101,13 @@
         <v>87668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -5074,13 +5116,13 @@
         <v>66922</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>240</v>
+        <v>370</v>
       </c>
       <c r="M15" s="7">
         <v>145</v>
@@ -5089,13 +5131,13 @@
         <v>154591</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5110,13 +5152,13 @@
         <v>59437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -5125,13 +5167,13 @@
         <v>61552</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>155</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -5140,13 +5182,13 @@
         <v>120989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5161,13 +5203,13 @@
         <v>41585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5176,13 +5218,13 @@
         <v>50268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>374</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5191,13 +5233,13 @@
         <v>91853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>377</v>
+        <v>390</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5307,13 @@
         <v>411250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>378</v>
+        <v>66</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="H19" s="7">
         <v>330</v>
@@ -5280,13 +5322,13 @@
         <v>337099</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -5295,13 +5337,13 @@
         <v>748349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5358,13 @@
         <v>347572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>336</v>
+        <v>400</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -5331,13 +5373,13 @@
         <v>260717</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>166</v>
+        <v>402</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
@@ -5346,13 +5388,13 @@
         <v>608288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>340</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>389</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5409,13 @@
         <v>380199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="H21" s="7">
         <v>227</v>
@@ -5382,13 +5424,13 @@
         <v>227517</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>393</v>
+        <v>246</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>65</v>
+        <v>408</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="M21" s="7">
         <v>585</v>
@@ -5397,13 +5439,13 @@
         <v>607716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>410</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5460,13 @@
         <v>270042</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -5433,13 +5475,13 @@
         <v>204999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>439</v>
@@ -5448,13 +5490,13 @@
         <v>475041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>215</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5510,7 +5552,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5529,7 +5571,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CAB4CC-593D-4262-A9AE-EE75421B8521}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED554F1-FB25-47AC-A0E5-CCE14503FBD7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5546,7 +5588,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5653,13 +5695,13 @@
         <v>13401</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>406</v>
+        <v>422</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5668,13 +5710,13 @@
         <v>3942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>408</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>409</v>
+        <v>425</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>410</v>
+        <v>426</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -5683,13 +5725,13 @@
         <v>17343</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>427</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>411</v>
+        <v>428</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5704,13 +5746,13 @@
         <v>8969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>415</v>
+        <v>432</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -5719,13 +5761,13 @@
         <v>15144</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>416</v>
+        <v>433</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -5734,13 +5776,13 @@
         <v>24113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5755,13 +5797,13 @@
         <v>24580</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>423</v>
+        <v>69</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -5770,13 +5812,13 @@
         <v>13453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -5785,13 +5827,13 @@
         <v>38033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5848,13 @@
         <v>20322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5821,13 +5863,13 @@
         <v>10481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>433</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>449</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -5836,13 +5878,13 @@
         <v>30803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5952,13 @@
         <v>156623</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -5925,13 +5967,13 @@
         <v>99590</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="M9" s="7">
         <v>225</v>
@@ -5940,13 +5982,13 @@
         <v>256213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +6003,13 @@
         <v>180924</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>448</v>
+        <v>207</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="H10" s="7">
         <v>189</v>
@@ -5976,13 +6018,13 @@
         <v>139529</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -5991,13 +6033,13 @@
         <v>320453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6012,13 +6054,13 @@
         <v>203390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
@@ -6027,13 +6069,13 @@
         <v>123171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="M11" s="7">
         <v>364</v>
@@ -6042,13 +6084,13 @@
         <v>326561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6063,13 +6105,13 @@
         <v>92042</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="H12" s="7">
         <v>107</v>
@@ -6078,13 +6120,13 @@
         <v>94177</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="M12" s="7">
         <v>182</v>
@@ -6093,13 +6135,13 @@
         <v>186219</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6209,13 @@
         <v>138372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -6182,13 +6224,13 @@
         <v>100278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="M14" s="7">
         <v>258</v>
@@ -6197,13 +6239,13 @@
         <v>238650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6218,13 +6260,13 @@
         <v>56484</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>477</v>
+        <v>42</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>478</v>
+        <v>492</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>479</v>
+        <v>493</v>
       </c>
       <c r="H15" s="7">
         <v>95</v>
@@ -6233,13 +6275,13 @@
         <v>60150</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>480</v>
+        <v>494</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
@@ -6248,13 +6290,13 @@
         <v>116634</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>483</v>
+        <v>497</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>484</v>
+        <v>498</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6269,13 +6311,13 @@
         <v>38119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>485</v>
+        <v>499</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>500</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -6284,13 +6326,13 @@
         <v>30650</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>502</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>503</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -6299,13 +6341,13 @@
         <v>68769</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>493</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6320,13 +6362,13 @@
         <v>21008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>495</v>
+        <v>509</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>496</v>
+        <v>510</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -6335,13 +6377,13 @@
         <v>22698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>497</v>
+        <v>511</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>498</v>
+        <v>512</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>499</v>
+        <v>513</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -6350,13 +6392,13 @@
         <v>43706</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>501</v>
+        <v>515</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6466,13 @@
         <v>308396</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>517</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="H19" s="7">
         <v>269</v>
@@ -6439,13 +6481,13 @@
         <v>203810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>497</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="M19" s="7">
         <v>501</v>
@@ -6454,13 +6496,13 @@
         <v>512206</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6517,13 @@
         <v>246377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>205</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -6490,13 +6532,13 @@
         <v>214822</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="M20" s="7">
         <v>535</v>
@@ -6505,13 +6547,13 @@
         <v>461199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>517</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6526,13 +6568,13 @@
         <v>266089</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>518</v>
+        <v>532</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>519</v>
+        <v>248</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>520</v>
+        <v>533</v>
       </c>
       <c r="H21" s="7">
         <v>237</v>
@@ -6541,13 +6583,13 @@
         <v>167274</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>521</v>
+        <v>534</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>522</v>
+        <v>535</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>536</v>
       </c>
       <c r="M21" s="7">
         <v>495</v>
@@ -6556,13 +6598,13 @@
         <v>433363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>523</v>
+        <v>537</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>525</v>
+        <v>539</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6577,13 +6619,13 @@
         <v>133372</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>526</v>
+        <v>540</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>527</v>
+        <v>541</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>528</v>
+        <v>542</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -6592,13 +6634,13 @@
         <v>127355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>529</v>
+        <v>543</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>530</v>
+        <v>544</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>519</v>
+        <v>42</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
@@ -6607,13 +6649,13 @@
         <v>260727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,7 +6711,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6605-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{446A706F-5524-4A2D-858B-32D8E9230BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9498E3A4-EEE6-438B-8556-94B0530D17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CA1FBDD-2A8A-4BEF-AB26-060462E35267}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{557BF754-F4CA-4A6B-A07F-C21238472F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="554">
   <si>
     <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,1564 +77,1582 @@
     <t>25,48%</t>
   </si>
   <si>
-    <t>21,33%</t>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>32,22%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>42,53%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>60,55%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>46,69%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
   </si>
   <si>
     <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>33,94%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>33,69%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2015 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>36,34%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>33,16%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>51,16%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
   </si>
   <si>
     <t>27,89%</t>
@@ -2094,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22914E31-6606-409F-B1C0-81714AADB5B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75181DBA-EFE1-4482-8813-6B8E911A45AD}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2511,7 +2529,7 @@
         <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2526,13 +2544,13 @@
         <v>258371</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -2541,13 +2559,13 @@
         <v>133463</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>374</v>
@@ -2556,13 +2574,13 @@
         <v>391834</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,13 +2595,13 @@
         <v>301916</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -2592,13 +2610,13 @@
         <v>162133</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
@@ -2607,13 +2625,13 @@
         <v>464049</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2628,13 +2646,13 @@
         <v>295179</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -2643,13 +2661,13 @@
         <v>120069</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="M12" s="7">
         <v>399</v>
@@ -2658,13 +2676,13 @@
         <v>415248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,7 +2738,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2732,13 +2750,13 @@
         <v>158041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -2747,13 +2765,13 @@
         <v>110013</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>261</v>
@@ -2762,13 +2780,13 @@
         <v>268054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2783,13 +2801,13 @@
         <v>123011</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -2798,13 +2816,13 @@
         <v>86062</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>198</v>
@@ -2813,13 +2831,13 @@
         <v>209073</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +2852,13 @@
         <v>75442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -2849,13 +2867,13 @@
         <v>73734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -2864,13 +2882,13 @@
         <v>149176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,13 +2903,13 @@
         <v>47851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2900,13 +2918,13 @@
         <v>20367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -2915,13 +2933,13 @@
         <v>68219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,13 +3007,13 @@
         <v>520264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>307</v>
@@ -3004,13 +3022,13 @@
         <v>316644</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>806</v>
@@ -3019,13 +3037,13 @@
         <v>836908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3040,13 +3058,13 @@
         <v>437149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -3055,13 +3073,13 @@
         <v>245945</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>650</v>
@@ -3070,13 +3088,13 @@
         <v>683094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3091,13 +3109,13 @@
         <v>502159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H21" s="7">
         <v>258</v>
@@ -3106,13 +3124,13 @@
         <v>272875</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>743</v>
@@ -3121,13 +3139,13 @@
         <v>775034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3142,13 +3160,13 @@
         <v>442308</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -3157,13 +3175,13 @@
         <v>187876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="M22" s="7">
         <v>601</v>
@@ -3172,13 +3190,13 @@
         <v>630184</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3234,7 +3252,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3253,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3F49F8-E6C3-43D9-96B2-E9148C78A964}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0898AAE4-722B-41A2-B74A-41FBB0129538}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3270,7 +3288,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3377,13 +3395,13 @@
         <v>25878</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3392,13 +3410,13 @@
         <v>32090</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -3407,13 +3425,13 @@
         <v>57968</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3446,13 @@
         <v>38047</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3443,13 +3461,13 @@
         <v>43478</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -3458,13 +3476,13 @@
         <v>81526</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,13 +3497,13 @@
         <v>69870</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3494,13 +3512,13 @@
         <v>22968</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M6" s="7">
         <v>90</v>
@@ -3509,13 +3527,13 @@
         <v>92838</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,13 +3548,13 @@
         <v>48113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -3545,13 +3563,13 @@
         <v>41441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -3560,13 +3578,13 @@
         <v>89553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3634,13 +3652,13 @@
         <v>187698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H9" s="7">
         <v>125</v>
@@ -3649,13 +3667,13 @@
         <v>135100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M9" s="7">
         <v>297</v>
@@ -3664,13 +3682,13 @@
         <v>322798</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3703,13 @@
         <v>239349</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="H10" s="7">
         <v>130</v>
@@ -3700,13 +3718,13 @@
         <v>137034</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>360</v>
@@ -3715,13 +3733,13 @@
         <v>376382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3736,13 +3754,13 @@
         <v>267527</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -3751,13 +3769,13 @@
         <v>157384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -3766,13 +3784,13 @@
         <v>424911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>44</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3805,13 @@
         <v>217259</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H12" s="7">
         <v>134</v>
@@ -3802,13 +3820,13 @@
         <v>142347</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M12" s="7">
         <v>338</v>
@@ -3817,13 +3835,13 @@
         <v>359606</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,7 +3897,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3891,13 +3909,13 @@
         <v>111304</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -3906,13 +3924,13 @@
         <v>82352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -3921,13 +3939,13 @@
         <v>193656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3960,13 @@
         <v>71000</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -3957,13 +3975,13 @@
         <v>72657</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M15" s="7">
         <v>129</v>
@@ -3972,13 +3990,13 @@
         <v>143657</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,13 +4011,13 @@
         <v>85121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>134</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4008,13 +4026,13 @@
         <v>53366</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -4023,13 +4041,13 @@
         <v>138488</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4044,13 +4062,13 @@
         <v>48832</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4059,13 +4077,13 @@
         <v>26522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4074,13 +4092,13 @@
         <v>75354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4166,13 @@
         <v>324881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
@@ -4163,13 +4181,13 @@
         <v>249542</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
         <v>524</v>
@@ -4178,13 +4196,13 @@
         <v>574422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>79</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4217,13 @@
         <v>348396</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -4214,13 +4232,13 @@
         <v>253169</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>567</v>
@@ -4229,13 +4247,13 @@
         <v>601565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4250,13 +4268,13 @@
         <v>422519</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>213</v>
@@ -4265,13 +4283,13 @@
         <v>233719</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>614</v>
@@ -4280,13 +4298,13 @@
         <v>656237</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4319,13 @@
         <v>314204</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -4316,13 +4334,13 @@
         <v>210310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M22" s="7">
         <v>492</v>
@@ -4331,13 +4349,13 @@
         <v>524513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4393,7 +4411,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4412,7 +4430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC7D0CF0-3FC8-4001-9CDE-672B6709C2D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A10290-FB78-45A9-847C-40B4DCC6E769}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4554,13 @@
         <v>19644</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4551,13 +4569,13 @@
         <v>15999</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4566,13 +4584,13 @@
         <v>35642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>248</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4605,13 @@
         <v>33507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4602,13 +4620,13 @@
         <v>19098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4617,13 +4635,13 @@
         <v>52605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>114</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4638,13 +4656,13 @@
         <v>43766</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -4653,13 +4671,13 @@
         <v>17718</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -4668,13 +4686,13 @@
         <v>61484</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4689,13 +4707,13 @@
         <v>41943</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4704,13 +4722,13 @@
         <v>19272</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4719,13 +4737,13 @@
         <v>61215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>325</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,13 +4811,13 @@
         <v>231592</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H9" s="7">
         <v>188</v>
@@ -4808,13 +4826,13 @@
         <v>192396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>328</v>
+        <v>141</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>405</v>
@@ -4823,13 +4841,13 @@
         <v>423988</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>332</v>
+        <v>220</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4844,13 +4862,13 @@
         <v>226396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4859,13 +4877,13 @@
         <v>174697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="M10" s="7">
         <v>386</v>
@@ -4874,13 +4892,13 @@
         <v>401093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>145</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4895,13 +4913,13 @@
         <v>276996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -4910,13 +4928,13 @@
         <v>148247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="M11" s="7">
         <v>409</v>
@@ -4925,13 +4943,13 @@
         <v>425243</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,13 +4964,13 @@
         <v>186515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="H12" s="7">
         <v>128</v>
@@ -4961,13 +4979,13 @@
         <v>135458</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>174</v>
+        <v>348</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M12" s="7">
         <v>298</v>
@@ -4976,13 +4994,13 @@
         <v>321973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,7 +5056,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5050,13 +5068,13 @@
         <v>160014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -5065,13 +5083,13 @@
         <v>128704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="M14" s="7">
         <v>272</v>
@@ -5080,13 +5098,13 @@
         <v>288719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,13 +5119,13 @@
         <v>87668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>265</v>
+        <v>363</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>366</v>
+        <v>106</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -5116,13 +5134,13 @@
         <v>66922</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="M15" s="7">
         <v>145</v>
@@ -5131,13 +5149,13 @@
         <v>154591</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5170,13 @@
         <v>59437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -5167,13 +5185,13 @@
         <v>61552</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -5182,13 +5200,13 @@
         <v>120989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>381</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5221,13 @@
         <v>41585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5218,13 +5236,13 @@
         <v>50268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>252</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5233,13 +5251,13 @@
         <v>91853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5325,13 @@
         <v>411250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>391</v>
+        <v>246</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>66</v>
+        <v>388</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H19" s="7">
         <v>330</v>
@@ -5322,13 +5340,13 @@
         <v>337099</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -5337,13 +5355,13 @@
         <v>748349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5376,13 @@
         <v>347572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>286</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -5373,13 +5391,13 @@
         <v>260717</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
@@ -5388,13 +5406,13 @@
         <v>608288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>303</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5409,13 +5427,13 @@
         <v>380199</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H21" s="7">
         <v>227</v>
@@ -5424,13 +5442,13 @@
         <v>227517</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>246</v>
+        <v>406</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M21" s="7">
         <v>585</v>
@@ -5442,10 +5460,10 @@
         <v>409</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5478,13 @@
         <v>270042</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -5475,13 +5493,13 @@
         <v>204999</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M22" s="7">
         <v>439</v>
@@ -5552,7 +5570,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5571,7 +5589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED554F1-FB25-47AC-A0E5-CCE14503FBD7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F7045B-DD76-4005-A73B-D0F4BAD08D29}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5746,13 +5764,13 @@
         <v>8969</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>431</v>
-      </c>
       <c r="G5" s="7" t="s">
-        <v>432</v>
+        <v>153</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -5761,13 +5779,13 @@
         <v>15144</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -5776,13 +5794,13 @@
         <v>24113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,10 +5815,10 @@
         <v>24580</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>439</v>
@@ -5848,7 +5866,7 @@
         <v>20322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>446</v>
@@ -5863,13 +5881,13 @@
         <v>10481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>71</v>
+        <v>448</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -5878,13 +5896,13 @@
         <v>30803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,7 +5970,7 @@
         <v>156623</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>454</v>
@@ -6006,10 +6024,10 @@
         <v>462</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>463</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="H10" s="7">
         <v>189</v>
@@ -6018,13 +6036,13 @@
         <v>139529</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -6033,13 +6051,13 @@
         <v>320453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +6072,13 @@
         <v>203390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>472</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
@@ -6069,13 +6087,13 @@
         <v>123171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>364</v>
@@ -6084,13 +6102,13 @@
         <v>326561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +6123,13 @@
         <v>92042</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>474</v>
+        <v>166</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>107</v>
@@ -6120,13 +6138,13 @@
         <v>94177</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="M12" s="7">
         <v>182</v>
@@ -6135,13 +6153,13 @@
         <v>186219</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6197,7 +6215,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6209,13 +6227,13 @@
         <v>138372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -6224,13 +6242,13 @@
         <v>100278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M14" s="7">
         <v>258</v>
@@ -6239,13 +6257,13 @@
         <v>238650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6278,13 @@
         <v>56484</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="H15" s="7">
         <v>95</v>
@@ -6275,13 +6293,13 @@
         <v>60150</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
@@ -6290,13 +6308,13 @@
         <v>116634</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>397</v>
+        <v>502</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6311,13 +6329,13 @@
         <v>38119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -6326,13 +6344,13 @@
         <v>30650</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -6341,13 +6359,13 @@
         <v>68769</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6380,13 @@
         <v>21008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -6377,13 +6395,13 @@
         <v>22698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -6392,13 +6410,13 @@
         <v>43706</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,13 +6484,13 @@
         <v>308396</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H19" s="7">
         <v>269</v>
@@ -6481,13 +6499,13 @@
         <v>203810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="M19" s="7">
         <v>501</v>
@@ -6496,13 +6514,13 @@
         <v>512206</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6517,13 +6535,13 @@
         <v>246377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>205</v>
+        <v>531</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -6532,13 +6550,13 @@
         <v>214822</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="M20" s="7">
         <v>535</v>
@@ -6547,13 +6565,13 @@
         <v>461199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>13</v>
+        <v>537</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6568,13 +6586,13 @@
         <v>266089</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="H21" s="7">
         <v>237</v>
@@ -6583,13 +6601,13 @@
         <v>167274</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="M21" s="7">
         <v>495</v>
@@ -6598,13 +6616,13 @@
         <v>433363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6619,13 +6637,13 @@
         <v>133372</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -6634,13 +6652,13 @@
         <v>127355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>42</v>
+        <v>494</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
@@ -6649,13 +6667,13 @@
         <v>260727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6711,7 +6729,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6605-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9498E3A4-EEE6-438B-8556-94B0530D17FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0188DFE4-13F2-4A3B-9074-16F3715045D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{557BF754-F4CA-4A6B-A07F-C21238472F5A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CD19D27-ABE0-421D-8D27-DC2F19DA755E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="534">
   <si>
     <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>25,48%</t>
   </si>
   <si>
-    <t>21,29%</t>
+    <t>21,38%</t>
   </si>
   <si>
     <t>30,37%</t>
@@ -86,1621 +86,1561 @@
     <t>27,29%</t>
   </si>
   <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>24,84%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
     <t>22,29%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
   </si>
   <si>
     <t>21,14%</t>
   </si>
   <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
   </si>
   <si>
     <t>26,74%</t>
   </si>
   <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>29,15%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>47,98%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
   </si>
   <si>
     <t>20,43%</t>
   </si>
   <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
   </si>
   <si>
     <t>21,65%</t>
   </si>
   <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>31,18%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>14,54%</t>
   </si>
   <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>31,06%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>30,12%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>41,9%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2016 (Tasa respuesta: 35,38%)</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>29,15%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>47,92%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>24,91%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>60,55%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>18,43%</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75181DBA-EFE1-4482-8813-6B8E911A45AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE2DDA3-55DA-443A-AAAA-6173C2799F84}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2529,7 +2469,7 @@
         <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2484,13 @@
         <v>258371</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>127</v>
@@ -2559,13 +2499,13 @@
         <v>133463</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>374</v>
@@ -2574,13 +2514,13 @@
         <v>391834</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2535,13 @@
         <v>301916</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>153</v>
@@ -2610,13 +2550,13 @@
         <v>162133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>447</v>
@@ -2625,13 +2565,13 @@
         <v>464049</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2586,13 @@
         <v>295179</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>115</v>
@@ -2661,13 +2601,13 @@
         <v>120069</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>399</v>
@@ -2676,13 +2616,13 @@
         <v>415248</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,7 +2678,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2750,13 +2690,13 @@
         <v>158041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>107</v>
@@ -2765,13 +2705,13 @@
         <v>110013</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>261</v>
@@ -2780,13 +2720,13 @@
         <v>268054</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,13 +2741,13 @@
         <v>123011</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>81</v>
@@ -2816,13 +2756,13 @@
         <v>86062</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>198</v>
@@ -2831,13 +2771,13 @@
         <v>209073</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2792,13 @@
         <v>75442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -2867,13 +2807,13 @@
         <v>73734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>143</v>
@@ -2882,13 +2822,13 @@
         <v>149176</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2903,13 +2843,13 @@
         <v>47851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -2918,13 +2858,13 @@
         <v>20367</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>64</v>
@@ -2933,13 +2873,13 @@
         <v>68219</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>119</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3007,13 +2947,13 @@
         <v>520264</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>307</v>
@@ -3022,13 +2962,13 @@
         <v>316644</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>806</v>
@@ -3037,13 +2977,13 @@
         <v>836908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3058,13 +2998,13 @@
         <v>437149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>233</v>
@@ -3073,13 +3013,13 @@
         <v>245945</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>650</v>
@@ -3088,13 +3028,13 @@
         <v>683094</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,13 +3049,13 @@
         <v>502159</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>258</v>
@@ -3124,13 +3064,13 @@
         <v>272875</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>743</v>
@@ -3139,13 +3079,13 @@
         <v>775034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3100,13 @@
         <v>442308</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>181</v>
@@ -3175,13 +3115,13 @@
         <v>187876</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>601</v>
@@ -3190,13 +3130,13 @@
         <v>630184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3252,7 +3192,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3271,7 +3211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0898AAE4-722B-41A2-B74A-41FBB0129538}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2383DB-7B4A-4295-9684-5A50B92915D5}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3288,7 +3228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3395,13 +3335,13 @@
         <v>25878</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3410,13 +3350,13 @@
         <v>32090</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>52</v>
@@ -3425,13 +3365,13 @@
         <v>57968</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,13 +3386,13 @@
         <v>38047</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
@@ -3461,13 +3401,13 @@
         <v>43478</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>78</v>
@@ -3476,13 +3416,13 @@
         <v>81526</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,13 +3437,13 @@
         <v>69870</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H6" s="7">
         <v>22</v>
@@ -3512,13 +3452,13 @@
         <v>22968</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M6" s="7">
         <v>90</v>
@@ -3527,13 +3467,13 @@
         <v>92838</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3548,13 +3488,13 @@
         <v>48113</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -3563,13 +3503,13 @@
         <v>41441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>84</v>
@@ -3578,13 +3518,13 @@
         <v>89553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,7 +3566,7 @@
         <v>304</v>
       </c>
       <c r="N8" s="7">
-        <v>321885</v>
+        <v>321886</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -3652,13 +3592,13 @@
         <v>187698</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H9" s="7">
         <v>125</v>
@@ -3667,13 +3607,13 @@
         <v>135100</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>196</v>
+        <v>14</v>
       </c>
       <c r="M9" s="7">
         <v>297</v>
@@ -3718,13 +3658,13 @@
         <v>137034</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M10" s="7">
         <v>360</v>
@@ -3733,13 +3673,13 @@
         <v>376382</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3694,13 @@
         <v>267527</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -3769,13 +3709,13 @@
         <v>157384</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M11" s="7">
         <v>402</v>
@@ -3784,13 +3724,13 @@
         <v>424911</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3745,13 @@
         <v>217259</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>38</v>
       </c>
       <c r="H12" s="7">
         <v>134</v>
@@ -3820,13 +3760,13 @@
         <v>142347</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M12" s="7">
         <v>338</v>
@@ -3835,13 +3775,13 @@
         <v>359606</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,7 +3837,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3909,13 +3849,13 @@
         <v>111304</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>73</v>
@@ -3924,13 +3864,13 @@
         <v>82352</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>226</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>175</v>
@@ -3939,13 +3879,13 @@
         <v>193656</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3900,13 @@
         <v>71000</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -3975,13 +3915,13 @@
         <v>72657</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M15" s="7">
         <v>129</v>
@@ -3990,13 +3930,13 @@
         <v>143657</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +3951,13 @@
         <v>85121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>211</v>
+        <v>57</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -4026,13 +3966,13 @@
         <v>53366</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -4041,13 +3981,13 @@
         <v>138488</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4002,13 @@
         <v>48832</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H17" s="7">
         <v>26</v>
@@ -4077,13 +4017,13 @@
         <v>26522</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="M17" s="7">
         <v>70</v>
@@ -4092,13 +4032,13 @@
         <v>75354</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4106,13 @@
         <v>324881</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7">
         <v>226</v>
@@ -4181,13 +4121,13 @@
         <v>249542</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>524</v>
@@ -4196,13 +4136,13 @@
         <v>574422</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4157,13 @@
         <v>348396</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H20" s="7">
         <v>237</v>
@@ -4232,13 +4172,13 @@
         <v>253169</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>194</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M20" s="7">
         <v>567</v>
@@ -4247,13 +4187,13 @@
         <v>601565</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4268,13 +4208,13 @@
         <v>422519</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>213</v>
@@ -4283,13 +4223,13 @@
         <v>233719</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>614</v>
@@ -4298,13 +4238,13 @@
         <v>656237</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>278</v>
+        <v>99</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>279</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4319,13 +4259,13 @@
         <v>314204</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>198</v>
@@ -4334,13 +4274,13 @@
         <v>210310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>492</v>
@@ -4349,13 +4289,13 @@
         <v>524513</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,7 +4351,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4430,7 +4370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51A10290-FB78-45A9-847C-40B4DCC6E769}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84733196-F70E-4A2A-99EB-2EA0961015BF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4447,7 +4387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,13 +4494,13 @@
         <v>19644</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>16</v>
@@ -4569,13 +4509,13 @@
         <v>15999</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>35</v>
@@ -4584,13 +4524,13 @@
         <v>35642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4545,13 @@
         <v>33507</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -4620,13 +4560,13 @@
         <v>19098</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4635,13 +4575,13 @@
         <v>52605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4596,13 @@
         <v>43766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="H6" s="7">
         <v>18</v>
@@ -4671,13 +4611,13 @@
         <v>17718</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>309</v>
+        <v>84</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="M6" s="7">
         <v>61</v>
@@ -4686,13 +4626,13 @@
         <v>61484</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4647,13 @@
         <v>41943</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -4722,13 +4662,13 @@
         <v>19272</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -4737,13 +4677,13 @@
         <v>61215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>95</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4751,13 @@
         <v>231592</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H9" s="7">
         <v>188</v>
@@ -4826,13 +4766,13 @@
         <v>192396</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>141</v>
+        <v>318</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
         <v>405</v>
@@ -4841,13 +4781,13 @@
         <v>423988</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4862,13 +4802,13 @@
         <v>226396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>328</v>
+        <v>171</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>172</v>
@@ -4877,13 +4817,13 @@
         <v>174697</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
         <v>386</v>
@@ -4892,13 +4832,13 @@
         <v>401093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>145</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4853,13 @@
         <v>276996</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>338</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>148</v>
@@ -4928,13 +4868,13 @@
         <v>148247</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M11" s="7">
         <v>409</v>
@@ -4943,13 +4883,13 @@
         <v>425243</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4964,13 +4904,13 @@
         <v>186515</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>346</v>
+        <v>83</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="H12" s="7">
         <v>128</v>
@@ -4979,13 +4919,13 @@
         <v>135458</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>350</v>
+        <v>301</v>
       </c>
       <c r="M12" s="7">
         <v>298</v>
@@ -4994,13 +4934,13 @@
         <v>321973</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>353</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,7 +4996,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -5068,13 +5008,13 @@
         <v>160014</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>126</v>
@@ -5083,13 +5023,13 @@
         <v>128704</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>272</v>
@@ -5098,13 +5038,13 @@
         <v>288719</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5119,13 +5059,13 @@
         <v>87668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>363</v>
+        <v>124</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>106</v>
+        <v>354</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="H15" s="7">
         <v>65</v>
@@ -5134,13 +5074,13 @@
         <v>66922</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>367</v>
+        <v>240</v>
       </c>
       <c r="M15" s="7">
         <v>145</v>
@@ -5149,13 +5089,13 @@
         <v>154591</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5110,13 @@
         <v>59437</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -5185,13 +5125,13 @@
         <v>61552</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>155</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="M16" s="7">
         <v>115</v>
@@ -5200,13 +5140,13 @@
         <v>120989</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>249</v>
+        <v>367</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5161,13 @@
         <v>41585</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H17" s="7">
         <v>46</v>
@@ -5236,13 +5176,13 @@
         <v>50268</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>85</v>
@@ -5251,13 +5191,13 @@
         <v>91853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5265,13 @@
         <v>411250</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>246</v>
+        <v>338</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="H19" s="7">
         <v>330</v>
@@ -5340,13 +5280,13 @@
         <v>337099</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>391</v>
+        <v>327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="M19" s="7">
         <v>712</v>
@@ -5355,13 +5295,13 @@
         <v>748349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5376,13 +5316,13 @@
         <v>347572</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>397</v>
+        <v>336</v>
       </c>
       <c r="H20" s="7">
         <v>256</v>
@@ -5391,13 +5331,13 @@
         <v>260717</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>399</v>
+        <v>166</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M20" s="7">
         <v>581</v>
@@ -5406,13 +5346,13 @@
         <v>608288</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5367,13 @@
         <v>380199</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="H21" s="7">
         <v>227</v>
@@ -5442,13 +5382,13 @@
         <v>227517</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>407</v>
+        <v>65</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>408</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>585</v>
@@ -5457,13 +5397,13 @@
         <v>607716</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5418,13 @@
         <v>270042</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="H22" s="7">
         <v>193</v>
@@ -5493,13 +5433,13 @@
         <v>204999</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>439</v>
@@ -5508,13 +5448,13 @@
         <v>475041</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5570,7 +5510,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -5589,7 +5529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F7045B-DD76-4005-A73B-D0F4BAD08D29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C377B340-E4B7-47FF-AF6D-F3E81BA4CCC7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5606,7 +5546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5713,13 +5653,13 @@
         <v>13401</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -5728,13 +5668,13 @@
         <v>3942</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -5743,13 +5683,13 @@
         <v>17343</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>427</v>
+        <v>364</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5704,13 @@
         <v>8969</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>413</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>153</v>
+        <v>415</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -5779,13 +5719,13 @@
         <v>15144</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -5794,13 +5734,13 @@
         <v>24113</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5815,13 +5755,13 @@
         <v>24580</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
@@ -5830,13 +5770,13 @@
         <v>13453</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="M6" s="7">
         <v>50</v>
@@ -5845,13 +5785,13 @@
         <v>38033</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5866,13 +5806,13 @@
         <v>20322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
@@ -5881,13 +5821,13 @@
         <v>10481</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
@@ -5896,13 +5836,13 @@
         <v>30803</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>453</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5970,13 +5910,13 @@
         <v>156623</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>343</v>
+        <v>438</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
@@ -5985,13 +5925,13 @@
         <v>99590</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="M9" s="7">
         <v>225</v>
@@ -6000,13 +5940,13 @@
         <v>256213</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6021,13 +5961,13 @@
         <v>180924</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="H10" s="7">
         <v>189</v>
@@ -6036,13 +5976,13 @@
         <v>139529</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="M10" s="7">
         <v>352</v>
@@ -6051,13 +5991,13 @@
         <v>320453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>468</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6072,13 +6012,13 @@
         <v>203390</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>472</v>
+        <v>293</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
@@ -6087,13 +6027,13 @@
         <v>123171</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="M11" s="7">
         <v>364</v>
@@ -6102,13 +6042,13 @@
         <v>326561</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>398</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6123,13 +6063,13 @@
         <v>92042</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>166</v>
+        <v>460</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="H12" s="7">
         <v>107</v>
@@ -6138,13 +6078,13 @@
         <v>94177</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="M12" s="7">
         <v>182</v>
@@ -6153,13 +6093,13 @@
         <v>186219</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>484</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6155,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6227,13 +6167,13 @@
         <v>138372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -6242,13 +6182,13 @@
         <v>100278</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="M14" s="7">
         <v>258</v>
@@ -6257,13 +6197,13 @@
         <v>238650</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6278,13 +6218,13 @@
         <v>56484</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="H15" s="7">
         <v>95</v>
@@ -6293,13 +6233,13 @@
         <v>60150</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
@@ -6308,13 +6248,13 @@
         <v>116634</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>502</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6329,13 +6269,13 @@
         <v>38119</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>504</v>
+        <v>486</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>505</v>
+        <v>487</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
@@ -6344,13 +6284,13 @@
         <v>30650</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>506</v>
+        <v>488</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -6359,13 +6299,13 @@
         <v>68769</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6380,13 +6320,13 @@
         <v>21008</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -6395,13 +6335,13 @@
         <v>22698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>516</v>
+        <v>498</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>517</v>
+        <v>499</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
@@ -6410,13 +6350,13 @@
         <v>43706</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>518</v>
+        <v>500</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6484,13 +6424,13 @@
         <v>308396</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>521</v>
+        <v>49</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="H19" s="7">
         <v>269</v>
@@ -6499,13 +6439,13 @@
         <v>203810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>524</v>
+        <v>505</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>500</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="M19" s="7">
         <v>501</v>
@@ -6514,13 +6454,13 @@
         <v>512206</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6535,13 +6475,13 @@
         <v>246377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>531</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
@@ -6550,13 +6490,13 @@
         <v>214822</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="M20" s="7">
         <v>535</v>
@@ -6565,13 +6505,13 @@
         <v>461199</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6586,13 +6526,13 @@
         <v>266089</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>244</v>
+        <v>519</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="H21" s="7">
         <v>237</v>
@@ -6601,13 +6541,13 @@
         <v>167274</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>541</v>
+        <v>522</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>542</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7">
         <v>495</v>
@@ -6616,13 +6556,13 @@
         <v>433363</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6637,13 +6577,13 @@
         <v>133372</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
@@ -6652,13 +6592,13 @@
         <v>127355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>494</v>
+        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
@@ -6667,13 +6607,13 @@
         <v>260727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,7 +6669,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6605-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6605-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0188DFE4-13F2-4A3B-9074-16F3715045D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D81E607-37F8-48C7-A1D4-FCB5EBB0432C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1CD19D27-ABE0-421D-8D27-DC2F19DA755E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0C1AFFF0-2AD2-4998-88EE-D1F54BB6751D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="533">
   <si>
     <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2007 (Tasa respuesta: 43,0%)</t>
   </si>
@@ -1256,391 +1256,388 @@
     <t>Población según la exposición a tareas repetitivas de menos de 10 minutos /Movimientos repetitivos de manos o brazos en su trabajo en 2023 (Tasa respuesta: 20,51%)</t>
   </si>
   <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>47,97%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>50,45%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>27,93%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>31,18%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>30,12%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
   </si>
 </sst>
 </file>
@@ -2052,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE2DDA3-55DA-443A-AAAA-6173C2799F84}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{411B6309-F74E-463D-B5C6-B6F970561616}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2819,7 +2816,7 @@
         <v>143</v>
       </c>
       <c r="N16" s="7">
-        <v>149176</v>
+        <v>149175</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>112</v>
@@ -2906,7 +2903,7 @@
         <v>278</v>
       </c>
       <c r="I18" s="7">
-        <v>290176</v>
+        <v>290177</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -2921,7 +2918,7 @@
         <v>666</v>
       </c>
       <c r="N18" s="7">
-        <v>694522</v>
+        <v>694521</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -3211,7 +3208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2383DB-7B4A-4295-9684-5A50B92915D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5676120E-4598-48B0-AC8C-266C61F828BA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3566,7 +3563,7 @@
         <v>304</v>
       </c>
       <c r="N8" s="7">
-        <v>321886</v>
+        <v>321885</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -4370,7 +4367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84733196-F70E-4A2A-99EB-2EA0961015BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CEE666-D7AE-4C6A-96FD-113800C93B03}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5343,7 +5340,7 @@
         <v>581</v>
       </c>
       <c r="N20" s="7">
-        <v>608288</v>
+        <v>608289</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>134</v>
@@ -5496,7 +5493,7 @@
         <v>2317</v>
       </c>
       <c r="N23" s="7">
-        <v>2439394</v>
+        <v>2439395</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -5529,7 +5526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C377B340-E4B7-47FF-AF6D-F3E81BA4CCC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83FD44E-89BD-4E38-A569-3273FB1210E6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5650,7 +5647,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>13401</v>
+        <v>12406</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>405</v>
@@ -5665,7 +5662,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>3942</v>
+        <v>3711</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>408</v>
@@ -5680,16 +5677,16 @@
         <v>18</v>
       </c>
       <c r="N4" s="7">
-        <v>17343</v>
+        <v>16117</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>364</v>
+        <v>411</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,46 +5698,46 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>8969</v>
+        <v>8402</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>15144</v>
+        <v>13827</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>24113</v>
+        <v>22229</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,25 +5749,25 @@
         <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>24580</v>
+        <v>26198</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H6" s="7">
         <v>21</v>
       </c>
       <c r="I6" s="7">
-        <v>13453</v>
+        <v>11991</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>425</v>
+        <v>37</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>426</v>
@@ -5782,7 +5779,7 @@
         <v>50</v>
       </c>
       <c r="N6" s="7">
-        <v>38033</v>
+        <v>38189</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>428</v>
@@ -5803,46 +5800,46 @@
         <v>24</v>
       </c>
       <c r="D7" s="7">
-        <v>20322</v>
+        <v>18409</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>308</v>
+        <v>431</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H7" s="7">
         <v>14</v>
       </c>
       <c r="I7" s="7">
-        <v>10481</v>
+        <v>9594</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M7" s="7">
         <v>38</v>
       </c>
       <c r="N7" s="7">
-        <v>30803</v>
+        <v>28003</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>436</v>
+        <v>378</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>437</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,7 +5851,7 @@
         <v>74</v>
       </c>
       <c r="D8" s="7">
-        <v>67272</v>
+        <v>65414</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -5869,7 +5866,7 @@
         <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>43019</v>
+        <v>39123</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -5884,7 +5881,7 @@
         <v>139</v>
       </c>
       <c r="N8" s="7">
-        <v>110291</v>
+        <v>104537</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -5907,46 +5904,46 @@
         <v>95</v>
       </c>
       <c r="D9" s="7">
-        <v>156623</v>
+        <v>344018</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H9" s="7">
         <v>130</v>
       </c>
       <c r="I9" s="7">
-        <v>99590</v>
+        <v>90885</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M9" s="7">
         <v>225</v>
       </c>
       <c r="N9" s="7">
-        <v>256213</v>
+        <v>434904</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5958,10 +5955,10 @@
         <v>163</v>
       </c>
       <c r="D10" s="7">
-        <v>180924</v>
+        <v>174359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>447</v>
+        <v>241</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>448</v>
@@ -5973,7 +5970,7 @@
         <v>189</v>
       </c>
       <c r="I10" s="7">
-        <v>139529</v>
+        <v>126640</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>450</v>
@@ -5988,16 +5985,16 @@
         <v>352</v>
       </c>
       <c r="N10" s="7">
-        <v>320453</v>
+        <v>300998</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>453</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,46 +6006,46 @@
         <v>191</v>
       </c>
       <c r="D11" s="7">
-        <v>203390</v>
+        <v>199993</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>455</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>293</v>
+        <v>456</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="H11" s="7">
         <v>173</v>
       </c>
       <c r="I11" s="7">
-        <v>123171</v>
+        <v>113587</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>457</v>
+        <v>104</v>
       </c>
       <c r="M11" s="7">
         <v>364</v>
       </c>
       <c r="N11" s="7">
-        <v>326561</v>
+        <v>313580</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>460</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,46 +6057,46 @@
         <v>75</v>
       </c>
       <c r="D12" s="7">
-        <v>92042</v>
+        <v>85821</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="H12" s="7">
         <v>107</v>
       </c>
       <c r="I12" s="7">
-        <v>94177</v>
+        <v>110643</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="M12" s="7">
         <v>182</v>
       </c>
       <c r="N12" s="7">
-        <v>186219</v>
+        <v>196464</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>426</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,7 +6108,7 @@
         <v>524</v>
       </c>
       <c r="D13" s="7">
-        <v>632979</v>
+        <v>804191</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -6126,7 +6123,7 @@
         <v>599</v>
       </c>
       <c r="I13" s="7">
-        <v>456467</v>
+        <v>441755</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -6141,7 +6138,7 @@
         <v>1123</v>
       </c>
       <c r="N13" s="7">
-        <v>1089446</v>
+        <v>1245946</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -6164,46 +6161,46 @@
         <v>126</v>
       </c>
       <c r="D14" s="7">
-        <v>138372</v>
+        <v>130856</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
       </c>
       <c r="I14" s="7">
-        <v>100278</v>
+        <v>91692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="M14" s="7">
         <v>258</v>
       </c>
       <c r="N14" s="7">
-        <v>238650</v>
+        <v>222549</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,46 +6212,46 @@
         <v>55</v>
       </c>
       <c r="D15" s="7">
-        <v>56484</v>
+        <v>52817</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="H15" s="7">
         <v>95</v>
       </c>
       <c r="I15" s="7">
-        <v>60150</v>
+        <v>55461</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="M15" s="7">
         <v>150</v>
       </c>
       <c r="N15" s="7">
-        <v>116634</v>
+        <v>108278</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>484</v>
+        <v>341</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>314</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,46 +6263,46 @@
         <v>38</v>
       </c>
       <c r="D16" s="7">
-        <v>38119</v>
+        <v>38190</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="H16" s="7">
         <v>43</v>
       </c>
       <c r="I16" s="7">
-        <v>30650</v>
+        <v>31037</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>490</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
       </c>
       <c r="N16" s="7">
-        <v>68769</v>
+        <v>69227</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,46 +6314,46 @@
         <v>14</v>
       </c>
       <c r="D17" s="7">
-        <v>21008</v>
+        <v>20195</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
       </c>
       <c r="I17" s="7">
-        <v>22698</v>
+        <v>20876</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M17" s="7">
         <v>41</v>
       </c>
       <c r="N17" s="7">
-        <v>43706</v>
+        <v>41071</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6368,7 +6365,7 @@
         <v>233</v>
       </c>
       <c r="D18" s="7">
-        <v>253984</v>
+        <v>242059</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -6383,7 +6380,7 @@
         <v>297</v>
       </c>
       <c r="I18" s="7">
-        <v>213775</v>
+        <v>199066</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -6398,7 +6395,7 @@
         <v>530</v>
       </c>
       <c r="N18" s="7">
-        <v>467759</v>
+        <v>441125</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -6421,46 +6418,46 @@
         <v>232</v>
       </c>
       <c r="D19" s="7">
-        <v>308396</v>
+        <v>487280</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>49</v>
+        <v>505</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="H19" s="7">
         <v>269</v>
       </c>
       <c r="I19" s="7">
-        <v>203810</v>
+        <v>186288</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>328</v>
+        <v>509</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M19" s="7">
         <v>501</v>
       </c>
       <c r="N19" s="7">
-        <v>512206</v>
+        <v>673568</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>508</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,46 +6469,46 @@
         <v>228</v>
       </c>
       <c r="D20" s="7">
-        <v>246377</v>
+        <v>235577</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>307</v>
       </c>
       <c r="I20" s="7">
-        <v>214822</v>
+        <v>195928</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>512</v>
+        <v>226</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>513</v>
+        <v>114</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M20" s="7">
         <v>535</v>
       </c>
       <c r="N20" s="7">
-        <v>461199</v>
+        <v>431505</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>517</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6523,7 +6520,7 @@
         <v>258</v>
       </c>
       <c r="D21" s="7">
-        <v>266089</v>
+        <v>264380</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>518</v>
@@ -6538,31 +6535,31 @@
         <v>237</v>
       </c>
       <c r="I21" s="7">
-        <v>167274</v>
+        <v>156615</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>521</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>522</v>
+        <v>402</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>213</v>
       </c>
       <c r="M21" s="7">
         <v>495</v>
       </c>
       <c r="N21" s="7">
-        <v>433363</v>
+        <v>420995</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>522</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>523</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6574,46 +6571,46 @@
         <v>113</v>
       </c>
       <c r="D22" s="7">
-        <v>133372</v>
+        <v>124425</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>528</v>
       </c>
       <c r="H22" s="7">
         <v>148</v>
       </c>
       <c r="I22" s="7">
-        <v>127355</v>
+        <v>141113</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>519</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
       </c>
       <c r="N22" s="7">
-        <v>260727</v>
+        <v>265538</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>531</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,7 +6622,7 @@
         <v>831</v>
       </c>
       <c r="D23" s="7">
-        <v>954235</v>
+        <v>1111663</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -6640,7 +6637,7 @@
         <v>961</v>
       </c>
       <c r="I23" s="7">
-        <v>713261</v>
+        <v>679944</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -6655,7 +6652,7 @@
         <v>1792</v>
       </c>
       <c r="N23" s="7">
-        <v>1667496</v>
+        <v>1791607</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
